--- a/Output/ellies_analysisRecords_db copy.xlsx
+++ b/Output/ellies_analysisRecords_db copy.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/dahlia_foo_utas_edu_au/Documents/Elephant-Weaners/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/dahlia_foo_utas_edu_au/Documents/Research/Elephant-Weaners/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9632B8C7-9D1A-CC46-BA5A-BE11C955F5D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:40009_{9632B8C7-9D1A-CC46-BA5A-BE11C955F5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2486E0CD-9101-264D-B883-FD3A52756EB1}"/>
   <bookViews>
-    <workbookView xWindow="41480" yWindow="1680" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ellies_analysisRecords_db" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ellies_analysisRecords_db!$A$1:$R$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ellies_analysisRecords_db!$A$1:$S$99</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="260">
   <si>
     <t>ref</t>
   </si>
@@ -796,16 +796,19 @@
     <t>W3844</t>
   </si>
   <si>
-    <t>short tracks</t>
-  </si>
-  <si>
-    <t>long gaps</t>
+    <t>has.short.tracks</t>
+  </si>
+  <si>
+    <t>has.long.gaps</t>
+  </si>
+  <si>
+    <t>is.weaner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1289,10 +1292,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1647,24 +1651,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A83" activeCellId="8" sqref="A46:A47 A54 A58 A68 A69 A72 A81 A82 A83"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1719,8 +1726,11 @@
       <c r="R1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1770,7 +1780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1820,7 +1830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1870,7 +1880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1920,7 +1930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1970,7 +1980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2020,7 +2030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2070,7 +2080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2120,7 +2130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2170,7 +2180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2220,7 +2230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2270,7 +2280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2320,7 +2330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2370,7 +2380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2420,7 +2430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3270,7 +3280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3320,7 +3330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -3370,7 +3380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -3420,7 +3430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -3470,7 +3480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -3520,7 +3530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -3570,7 +3580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -3620,7 +3630,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -3670,7 +3680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -3720,7 +3730,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -3770,7 +3780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -3820,7 +3830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -3870,7 +3880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -3922,8 +3932,11 @@
       <c r="Q45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>109</v>
       </c>
@@ -3974,8 +3987,11 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>111</v>
       </c>
@@ -4026,8 +4042,11 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -4079,8 +4098,11 @@
       <c r="Q48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -4129,8 +4151,11 @@
       <c r="P49" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -4179,8 +4204,11 @@
       <c r="P50" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -4229,8 +4257,11 @@
       <c r="P51" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -4279,8 +4310,11 @@
       <c r="P52" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -4329,8 +4363,11 @@
       <c r="P53" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>131</v>
       </c>
@@ -4381,8 +4418,11 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -4431,8 +4471,11 @@
       <c r="P55" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -4484,8 +4527,11 @@
       <c r="Q56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>139</v>
       </c>
@@ -4534,8 +4580,11 @@
       <c r="P57" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>142</v>
       </c>
@@ -4586,8 +4635,11 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>144</v>
       </c>
@@ -4636,8 +4688,11 @@
       <c r="P59" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>147</v>
       </c>
@@ -4689,8 +4744,11 @@
       <c r="Q60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>150</v>
       </c>
@@ -4742,8 +4800,11 @@
       <c r="Q61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -4792,8 +4853,11 @@
       <c r="P62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>156</v>
       </c>
@@ -4842,8 +4906,11 @@
       <c r="P63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>159</v>
       </c>
@@ -4895,8 +4962,11 @@
       <c r="Q64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>162</v>
       </c>
@@ -4945,8 +5015,11 @@
       <c r="P65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>165</v>
       </c>
@@ -4998,8 +5071,11 @@
       <c r="Q66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>168</v>
       </c>
@@ -5051,8 +5127,11 @@
       <c r="Q67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>171</v>
       </c>
@@ -5103,8 +5182,11 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>173</v>
       </c>
@@ -5155,8 +5237,11 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>175</v>
       </c>
@@ -5208,8 +5293,11 @@
       <c r="Q70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>178</v>
       </c>
@@ -5258,8 +5346,11 @@
       <c r="P71" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>181</v>
       </c>
@@ -5310,8 +5401,11 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>183</v>
       </c>
@@ -5360,8 +5454,11 @@
       <c r="P73" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -5410,8 +5507,11 @@
       <c r="P74" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>187</v>
       </c>
@@ -5460,8 +5560,11 @@
       <c r="P75" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -5510,8 +5613,11 @@
       <c r="P76" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>193</v>
       </c>
@@ -5560,8 +5666,11 @@
       <c r="P77" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>196</v>
       </c>
@@ -5610,8 +5719,11 @@
       <c r="P78" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>199</v>
       </c>
@@ -5663,8 +5775,11 @@
       <c r="R79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -5713,9 +5828,12 @@
       <c r="P80" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="S80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B81">
@@ -5727,47 +5845,48 @@
       <c r="D81" s="1">
         <v>36655.557118055556</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="3">
         <v>90.4</v>
       </c>
-      <c r="F81" s="2">
-        <v>1</v>
-      </c>
-      <c r="G81" s="2">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2">
-        <v>1</v>
-      </c>
-      <c r="I81" s="2">
-        <v>1</v>
-      </c>
-      <c r="J81" s="2" t="s">
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="K81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B82">
@@ -5779,47 +5898,48 @@
       <c r="D82" s="1">
         <v>36671.825659722221</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="3">
         <v>106.7</v>
       </c>
-      <c r="F82" s="2">
-        <v>1</v>
-      </c>
-      <c r="G82" s="2">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2">
-        <v>1</v>
-      </c>
-      <c r="I82" s="2">
-        <v>1</v>
-      </c>
-      <c r="J82" s="2" t="s">
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+      <c r="I82" s="3">
+        <v>1</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="K82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B83">
@@ -5831,46 +5951,47 @@
       <c r="D83" s="1">
         <v>36932.221412037034</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="3">
         <v>367.1</v>
       </c>
-      <c r="F83" s="2">
-        <v>1</v>
-      </c>
-      <c r="G83" s="2">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2">
-        <v>1</v>
-      </c>
-      <c r="I83" s="2">
-        <v>1</v>
-      </c>
-      <c r="J83" s="2" t="s">
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -5922,8 +6043,11 @@
       <c r="R84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>211</v>
       </c>
@@ -5972,8 +6096,11 @@
       <c r="P85" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>212</v>
       </c>
@@ -6022,8 +6149,11 @@
       <c r="P86" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>215</v>
       </c>
@@ -6075,8 +6205,11 @@
       <c r="R87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>216</v>
       </c>
@@ -6125,8 +6258,11 @@
       <c r="P88" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>219</v>
       </c>
@@ -6178,8 +6314,11 @@
       <c r="Q89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -6228,8 +6367,11 @@
       <c r="P90" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -6278,8 +6420,11 @@
       <c r="P91" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>224</v>
       </c>
@@ -6328,8 +6473,11 @@
       <c r="P92" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>229</v>
       </c>
@@ -6378,8 +6526,11 @@
       <c r="P93" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>233</v>
       </c>
@@ -6428,8 +6579,11 @@
       <c r="P94" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>237</v>
       </c>
@@ -6478,8 +6632,11 @@
       <c r="P95" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>241</v>
       </c>
@@ -6528,8 +6685,11 @@
       <c r="P96" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>245</v>
       </c>
@@ -6578,8 +6738,11 @@
       <c r="P97" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>249</v>
       </c>
@@ -6631,8 +6794,11 @@
       <c r="R98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>253</v>
       </c>
@@ -6681,15 +6847,42 @@
       <c r="P99" t="s">
         <v>228</v>
       </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R99">
+  <autoFilter ref="A1:S99" xr:uid="{F6955DF0-192F-FC42-9C33-7BB22EB6F050}">
     <filterColumn colId="5">
       <filters>
         <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:I1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>